--- a/biology/Zoologie/Gerbillus_henleyi/Gerbillus_henleyi.xlsx
+++ b/biology/Zoologie/Gerbillus_henleyi/Gerbillus_henleyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gerbillus henleyi ou Gerbillus (Hendecapleura) henleyi selon les classifications, est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés qui fréquente les régions arides et semi-désertiques situées sur le pourtour du Sahara. En français, elle est appelée Gerbille de Henley[1] ou Gerbille pygmée[2] comme Microdillus peeli.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gerbillus henleyi ou Gerbillus (Hendecapleura) henleyi selon les classifications, est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés qui fréquente les régions arides et semi-désertiques situées sur le pourtour du Sahara. En français, elle est appelée Gerbille de Henley ou Gerbille pygmée comme Microdillus peeli.
 </t>
         </is>
       </c>
